--- a/utils/docs/Описание работы val_reference.xlsx
+++ b/utils/docs/Описание работы val_reference.xlsx
@@ -9,28 +9,29 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" firstSheet="4" activeTab="17"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Легенда" sheetId="1" r:id="rId1"/>
-    <sheet name="1 bits" sheetId="2" r:id="rId2"/>
-    <sheet name="2 bits" sheetId="3" r:id="rId3"/>
-    <sheet name="3 bits" sheetId="4" r:id="rId4"/>
-    <sheet name="4 bits" sheetId="5" r:id="rId5"/>
-    <sheet name="5 bits" sheetId="6" r:id="rId6"/>
-    <sheet name="6 bits" sheetId="7" r:id="rId7"/>
-    <sheet name="7 bits" sheetId="8" r:id="rId8"/>
-    <sheet name="8 bits" sheetId="9" r:id="rId9"/>
-    <sheet name="9 bits" sheetId="18" r:id="rId10"/>
-    <sheet name="10 bits" sheetId="11" r:id="rId11"/>
-    <sheet name="11 bits" sheetId="12" r:id="rId12"/>
-    <sheet name="12 bits" sheetId="13" r:id="rId13"/>
-    <sheet name="13 bits" sheetId="14" r:id="rId14"/>
-    <sheet name="14 bits" sheetId="15" r:id="rId15"/>
-    <sheet name="15 bits" sheetId="16" r:id="rId16"/>
-    <sheet name="16 bits" sheetId="17" r:id="rId17"/>
-    <sheet name="20 bits" sheetId="19" r:id="rId18"/>
-    <sheet name="24 bits" sheetId="20" r:id="rId19"/>
+    <sheet name="examples" sheetId="21" r:id="rId2"/>
+    <sheet name="1 bits" sheetId="2" r:id="rId3"/>
+    <sheet name="2 bits" sheetId="3" r:id="rId4"/>
+    <sheet name="3 bits" sheetId="4" r:id="rId5"/>
+    <sheet name="4 bits" sheetId="5" r:id="rId6"/>
+    <sheet name="5 bits" sheetId="6" r:id="rId7"/>
+    <sheet name="6 bits" sheetId="7" r:id="rId8"/>
+    <sheet name="7 bits" sheetId="8" r:id="rId9"/>
+    <sheet name="8 bits" sheetId="9" r:id="rId10"/>
+    <sheet name="9 bits" sheetId="18" r:id="rId11"/>
+    <sheet name="10 bits" sheetId="11" r:id="rId12"/>
+    <sheet name="11 bits" sheetId="12" r:id="rId13"/>
+    <sheet name="12 bits" sheetId="13" r:id="rId14"/>
+    <sheet name="13 bits" sheetId="14" r:id="rId15"/>
+    <sheet name="14 bits" sheetId="15" r:id="rId16"/>
+    <sheet name="15 bits" sheetId="16" r:id="rId17"/>
+    <sheet name="16 bits" sheetId="17" r:id="rId18"/>
+    <sheet name="20 bits" sheetId="19" r:id="rId19"/>
+    <sheet name="24 bits" sheetId="20" r:id="rId20"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="938" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1003" uniqueCount="310">
   <si>
     <t>Номер в ячейке - это номер бита от числа</t>
   </si>
@@ -880,12 +881,105 @@
   <si>
     <t>((uint)data+1) &lt;&lt; 28</t>
   </si>
+  <si>
+    <t>0x0A =</t>
+  </si>
+  <si>
+    <t>0x0E =</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0x1F = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0x3F = </t>
+  </si>
+  <si>
+    <t>0x2A =</t>
+  </si>
+  <si>
+    <t>0x3C =</t>
+  </si>
+  <si>
+    <t>0x37 =</t>
+  </si>
+  <si>
+    <t>0x2F =</t>
+  </si>
+  <si>
+    <t>[0]</t>
+  </si>
+  <si>
+    <t>[1]</t>
+  </si>
+  <si>
+    <t>[2]</t>
+  </si>
+  <si>
+    <t>[3]</t>
+  </si>
+  <si>
+    <t>[4]</t>
+  </si>
+  <si>
+    <t>[5]</t>
+  </si>
+  <si>
+    <t>[6]</t>
+  </si>
+  <si>
+    <t>[7]</t>
+  </si>
+  <si>
+    <t>№ bit</t>
+  </si>
+  <si>
+    <t>№ el</t>
+  </si>
+  <si>
+    <t>bit_val</t>
+  </si>
+  <si>
+    <t>0x8A</t>
+  </si>
+  <si>
+    <t>0xF3</t>
+  </si>
+  <si>
+    <t>0xFD</t>
+  </si>
+  <si>
+    <t>0x2A</t>
+  </si>
+  <si>
+    <t>0x7F</t>
+  </si>
+  <si>
+    <t>0xBF</t>
+  </si>
+  <si>
+    <t>0 byte</t>
+  </si>
+  <si>
+    <t>1 byte</t>
+  </si>
+  <si>
+    <t>2 byte</t>
+  </si>
+  <si>
+    <t>3 byte</t>
+  </si>
+  <si>
+    <t>4 byte</t>
+  </si>
+  <si>
+    <t>5 byte</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -949,8 +1043,17 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -981,8 +1084,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -1067,11 +1176,117 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="118">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1291,6 +1506,135 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1631,10 +1975,336 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:U22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="37" width="4.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="22"/>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B2" s="3">
+        <v>8</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E4" s="2"/>
+      <c r="F4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="E5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="4">
+        <v>7</v>
+      </c>
+      <c r="G5" s="5">
+        <v>6</v>
+      </c>
+      <c r="H5" s="5">
+        <v>5</v>
+      </c>
+      <c r="I5" s="5">
+        <v>4</v>
+      </c>
+      <c r="J5" s="5">
+        <v>3</v>
+      </c>
+      <c r="K5" s="5">
+        <v>2</v>
+      </c>
+      <c r="L5" s="5">
+        <v>1</v>
+      </c>
+      <c r="M5" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="7">
+        <v>0</v>
+      </c>
+      <c r="G6" s="8">
+        <v>0</v>
+      </c>
+      <c r="H6" s="8">
+        <v>0</v>
+      </c>
+      <c r="I6" s="8">
+        <v>0</v>
+      </c>
+      <c r="J6" s="8">
+        <v>0</v>
+      </c>
+      <c r="K6" s="8">
+        <v>0</v>
+      </c>
+      <c r="L6" s="8">
+        <v>0</v>
+      </c>
+      <c r="M6" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="D9" t="s">
+        <v>77</v>
+      </c>
+      <c r="E9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="D10" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="E10" s="20">
+        <v>0</v>
+      </c>
+      <c r="F10" t="s">
+        <v>155</v>
+      </c>
+      <c r="N10" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="F11" t="s">
+        <v>154</v>
+      </c>
+      <c r="N11" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F12" s="25">
+        <v>15</v>
+      </c>
+      <c r="G12" s="25">
+        <v>14</v>
+      </c>
+      <c r="H12" s="25">
+        <v>13</v>
+      </c>
+      <c r="I12" s="25">
+        <v>12</v>
+      </c>
+      <c r="J12" s="25">
+        <v>11</v>
+      </c>
+      <c r="K12" s="25">
+        <v>10</v>
+      </c>
+      <c r="L12" s="25">
+        <v>9</v>
+      </c>
+      <c r="M12" s="25">
+        <v>8</v>
+      </c>
+      <c r="N12" s="25">
+        <v>7</v>
+      </c>
+      <c r="O12" s="25">
+        <v>6</v>
+      </c>
+      <c r="P12" s="25">
+        <v>5</v>
+      </c>
+      <c r="Q12" s="25">
+        <v>4</v>
+      </c>
+      <c r="R12" s="25">
+        <v>3</v>
+      </c>
+      <c r="S12" s="25">
+        <v>2</v>
+      </c>
+      <c r="T12" s="25">
+        <v>1</v>
+      </c>
+      <c r="U12" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="N13" s="4">
+        <v>7</v>
+      </c>
+      <c r="O13" s="5">
+        <v>6</v>
+      </c>
+      <c r="P13" s="5">
+        <v>5</v>
+      </c>
+      <c r="Q13" s="5">
+        <v>4</v>
+      </c>
+      <c r="R13" s="5">
+        <v>3</v>
+      </c>
+      <c r="S13" s="5">
+        <v>2</v>
+      </c>
+      <c r="T13" s="5">
+        <v>1</v>
+      </c>
+      <c r="U13" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N14" s="7">
+        <v>0</v>
+      </c>
+      <c r="O14" s="8">
+        <v>0</v>
+      </c>
+      <c r="P14" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="8">
+        <v>0</v>
+      </c>
+      <c r="R14" s="8">
+        <v>0</v>
+      </c>
+      <c r="S14" s="8">
+        <v>0</v>
+      </c>
+      <c r="T14" s="8">
+        <v>0</v>
+      </c>
+      <c r="U14" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="F15" s="36"/>
+      <c r="G15" s="37"/>
+      <c r="H15" s="37"/>
+      <c r="I15" s="37"/>
+      <c r="J15" s="37"/>
+      <c r="K15" s="37"/>
+      <c r="L15" s="37"/>
+      <c r="M15" s="26"/>
+    </row>
+    <row r="16" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F16" s="38"/>
+      <c r="G16" s="39"/>
+      <c r="H16" s="39"/>
+      <c r="I16" s="39"/>
+      <c r="J16" s="39"/>
+      <c r="K16" s="39"/>
+      <c r="L16" s="39"/>
+      <c r="M16" s="27"/>
+    </row>
+    <row r="17" spans="4:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N17" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="18" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="L18" t="s">
+        <v>159</v>
+      </c>
+      <c r="N18" s="49">
+        <v>7</v>
+      </c>
+      <c r="O18" s="47">
+        <v>6</v>
+      </c>
+      <c r="P18" s="47">
+        <v>5</v>
+      </c>
+      <c r="Q18" s="47">
+        <v>4</v>
+      </c>
+      <c r="R18" s="47">
+        <v>3</v>
+      </c>
+      <c r="S18" s="47">
+        <v>2</v>
+      </c>
+      <c r="T18" s="47">
+        <v>1</v>
+      </c>
+      <c r="U18" s="48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="4:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N19" s="54">
+        <v>0</v>
+      </c>
+      <c r="O19" s="53">
+        <v>0</v>
+      </c>
+      <c r="P19" s="53">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="53">
+        <v>0</v>
+      </c>
+      <c r="R19" s="53">
+        <v>0</v>
+      </c>
+      <c r="S19" s="53">
+        <v>0</v>
+      </c>
+      <c r="T19" s="53">
+        <v>0</v>
+      </c>
+      <c r="U19" s="55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="D22" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E22" s="20">
+        <v>1</v>
+      </c>
+      <c r="F22" t="s">
+        <v>66</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BY106"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3:BI5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1646,14 +2316,12 @@
     <col min="6" max="146" width="4.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:77" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B1" s="2"/>
-      <c r="C1" s="22" t="s">
-        <v>30</v>
-      </c>
+      <c r="C1" s="22"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
     </row>
@@ -5481,12 +6149,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BY57"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5497,14 +6165,12 @@
     <col min="6" max="77" width="4.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:77" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>150</v>
       </c>
       <c r="B1" s="2"/>
-      <c r="C1" s="22" t="s">
-        <v>30</v>
-      </c>
+      <c r="C1" s="22"/>
     </row>
     <row r="2" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -7477,12 +8143,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:DE106"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L109" sqref="L109"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7493,14 +8159,12 @@
     <col min="6" max="109" width="4.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:109" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:109" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>138</v>
       </c>
       <c r="B1" s="2"/>
-      <c r="C1" s="22" t="s">
-        <v>30</v>
-      </c>
+      <c r="C1" s="22"/>
     </row>
     <row r="2" spans="1:109" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -11457,12 +12121,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:DE34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4:AS6"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11473,14 +12137,12 @@
     <col min="6" max="109" width="4.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:109" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:109" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>132</v>
       </c>
       <c r="B1" s="2"/>
-      <c r="C1" s="22" t="s">
-        <v>30</v>
-      </c>
+      <c r="C1" s="22"/>
     </row>
     <row r="2" spans="1:109" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -12618,12 +13280,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:DE106"/>
   <sheetViews>
-    <sheetView topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="F106" sqref="F106"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12634,14 +13296,12 @@
     <col min="6" max="109" width="4.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:109" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:109" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>114</v>
       </c>
       <c r="B1" s="2"/>
-      <c r="C1" s="22" t="s">
-        <v>30</v>
-      </c>
+      <c r="C1" s="22"/>
     </row>
     <row r="2" spans="1:109" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -15922,10 +16582,10 @@
     </row>
     <row r="83" spans="4:43" x14ac:dyDescent="0.25">
       <c r="F83" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="V83" t="s">
-        <v>39</v>
+        <v>61</v>
       </c>
     </row>
     <row r="84" spans="4:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -16350,10 +17010,10 @@
     </row>
     <row r="95" spans="4:43" x14ac:dyDescent="0.25">
       <c r="F95" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="V95" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
     </row>
     <row r="96" spans="4:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -16702,12 +17362,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BY58"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="F58" sqref="F58"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16718,14 +17378,12 @@
     <col min="6" max="77" width="4.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:77" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>78</v>
       </c>
       <c r="B1" s="2"/>
-      <c r="C1" s="22" t="s">
-        <v>30</v>
-      </c>
+      <c r="C1" s="22"/>
     </row>
     <row r="2" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -18810,12 +19468,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:DU105"/>
   <sheetViews>
-    <sheetView topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="F105" sqref="F105"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18826,14 +19484,12 @@
     <col min="6" max="125" width="4.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:125" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>87</v>
       </c>
       <c r="B1" s="2"/>
-      <c r="C1" s="22" t="s">
-        <v>30</v>
-      </c>
+      <c r="C1" s="22"/>
     </row>
     <row r="2" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -23005,7 +23661,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL21"/>
   <sheetViews>
@@ -23588,11 +24244,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BU32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView topLeftCell="L1" workbookViewId="0">
       <selection activeCell="AH23" sqref="AH23"/>
     </sheetView>
   </sheetViews>
@@ -25220,11 +25876,793 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:BG9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N15" sqref="N15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="1"/>
+    <col min="3" max="8" width="4.28515625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="5.7109375" customWidth="1"/>
+    <col min="10" max="10" width="7" bestFit="1" customWidth="1"/>
+    <col min="11" max="59" width="4.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:59" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C1" s="89">
+        <v>5</v>
+      </c>
+      <c r="D1" s="89">
+        <v>4</v>
+      </c>
+      <c r="E1" s="89">
+        <v>3</v>
+      </c>
+      <c r="F1" s="89">
+        <v>2</v>
+      </c>
+      <c r="G1" s="89">
+        <v>1</v>
+      </c>
+      <c r="H1" s="89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="B2" s="79" t="s">
+        <v>279</v>
+      </c>
+      <c r="C2" s="90">
+        <v>0</v>
+      </c>
+      <c r="D2" s="90">
+        <v>0</v>
+      </c>
+      <c r="E2" s="90">
+        <v>1</v>
+      </c>
+      <c r="F2" s="90">
+        <v>0</v>
+      </c>
+      <c r="G2" s="90">
+        <v>1</v>
+      </c>
+      <c r="H2" s="91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="A3" s="82" t="s">
+        <v>288</v>
+      </c>
+      <c r="B3" s="75" t="s">
+        <v>280</v>
+      </c>
+      <c r="C3" s="77">
+        <v>0</v>
+      </c>
+      <c r="D3" s="77">
+        <v>0</v>
+      </c>
+      <c r="E3" s="77">
+        <v>1</v>
+      </c>
+      <c r="F3" s="77">
+        <v>1</v>
+      </c>
+      <c r="G3" s="77">
+        <v>1</v>
+      </c>
+      <c r="H3" s="92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="A4" s="82" t="s">
+        <v>289</v>
+      </c>
+      <c r="B4" s="75" t="s">
+        <v>281</v>
+      </c>
+      <c r="C4" s="78">
+        <v>0</v>
+      </c>
+      <c r="D4" s="78">
+        <v>1</v>
+      </c>
+      <c r="E4" s="78">
+        <v>1</v>
+      </c>
+      <c r="F4" s="78">
+        <v>1</v>
+      </c>
+      <c r="G4" s="78">
+        <v>1</v>
+      </c>
+      <c r="H4" s="83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:59" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="85" t="s">
+        <v>290</v>
+      </c>
+      <c r="B5" s="86" t="s">
+        <v>282</v>
+      </c>
+      <c r="C5" s="93">
+        <v>1</v>
+      </c>
+      <c r="D5" s="93">
+        <v>1</v>
+      </c>
+      <c r="E5" s="93">
+        <v>1</v>
+      </c>
+      <c r="F5" s="93">
+        <v>1</v>
+      </c>
+      <c r="G5" s="93">
+        <v>1</v>
+      </c>
+      <c r="H5" s="94">
+        <v>1</v>
+      </c>
+      <c r="J5" s="2"/>
+      <c r="K5" t="s">
+        <v>304</v>
+      </c>
+      <c r="S5" t="s">
+        <v>305</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>306</v>
+      </c>
+      <c r="AJ5" t="s">
+        <v>307</v>
+      </c>
+      <c r="AR5" t="s">
+        <v>308</v>
+      </c>
+      <c r="AZ5" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="6" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="B6" s="79" t="s">
+        <v>283</v>
+      </c>
+      <c r="C6" s="80">
+        <v>1</v>
+      </c>
+      <c r="D6" s="80">
+        <v>0</v>
+      </c>
+      <c r="E6" s="80">
+        <v>1</v>
+      </c>
+      <c r="F6" s="80">
+        <v>0</v>
+      </c>
+      <c r="G6" s="80">
+        <v>1</v>
+      </c>
+      <c r="H6" s="81">
+        <v>0</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="K6" s="4">
+        <v>1</v>
+      </c>
+      <c r="L6" s="5">
+        <v>0</v>
+      </c>
+      <c r="M6" s="5">
+        <v>5</v>
+      </c>
+      <c r="N6" s="5">
+        <v>4</v>
+      </c>
+      <c r="O6" s="5">
+        <v>3</v>
+      </c>
+      <c r="P6" s="5">
+        <v>2</v>
+      </c>
+      <c r="Q6" s="5">
+        <v>1</v>
+      </c>
+      <c r="R6" s="6">
+        <v>0</v>
+      </c>
+      <c r="S6" s="4">
+        <v>3</v>
+      </c>
+      <c r="T6" s="5">
+        <v>2</v>
+      </c>
+      <c r="U6" s="5">
+        <v>1</v>
+      </c>
+      <c r="V6" s="5">
+        <v>0</v>
+      </c>
+      <c r="W6" s="5">
+        <v>5</v>
+      </c>
+      <c r="X6" s="5">
+        <v>4</v>
+      </c>
+      <c r="Y6" s="5">
+        <v>3</v>
+      </c>
+      <c r="Z6" s="5">
+        <v>2</v>
+      </c>
+      <c r="AA6" s="4">
+        <v>5</v>
+      </c>
+      <c r="AB6" s="5">
+        <v>4</v>
+      </c>
+      <c r="AC6" s="5">
+        <v>3</v>
+      </c>
+      <c r="AD6" s="5">
+        <v>2</v>
+      </c>
+      <c r="AE6" s="5">
+        <v>1</v>
+      </c>
+      <c r="AF6" s="5">
+        <v>0</v>
+      </c>
+      <c r="AG6" s="5">
+        <v>5</v>
+      </c>
+      <c r="AH6" s="6">
+        <v>4</v>
+      </c>
+      <c r="AJ6" s="4">
+        <v>1</v>
+      </c>
+      <c r="AK6" s="5">
+        <v>0</v>
+      </c>
+      <c r="AL6" s="5">
+        <v>5</v>
+      </c>
+      <c r="AM6" s="5">
+        <v>4</v>
+      </c>
+      <c r="AN6" s="5">
+        <v>3</v>
+      </c>
+      <c r="AO6" s="5">
+        <v>2</v>
+      </c>
+      <c r="AP6" s="5">
+        <v>1</v>
+      </c>
+      <c r="AQ6" s="6">
+        <v>0</v>
+      </c>
+      <c r="AR6" s="5">
+        <v>3</v>
+      </c>
+      <c r="AS6" s="5">
+        <v>2</v>
+      </c>
+      <c r="AT6" s="5">
+        <v>1</v>
+      </c>
+      <c r="AU6" s="5">
+        <v>0</v>
+      </c>
+      <c r="AV6" s="5">
+        <v>5</v>
+      </c>
+      <c r="AW6" s="5">
+        <v>4</v>
+      </c>
+      <c r="AX6" s="5">
+        <v>3</v>
+      </c>
+      <c r="AY6" s="5">
+        <v>2</v>
+      </c>
+      <c r="AZ6" s="4">
+        <v>5</v>
+      </c>
+      <c r="BA6" s="5">
+        <v>4</v>
+      </c>
+      <c r="BB6" s="5">
+        <v>3</v>
+      </c>
+      <c r="BC6" s="5">
+        <v>2</v>
+      </c>
+      <c r="BD6" s="5">
+        <v>1</v>
+      </c>
+      <c r="BE6" s="5">
+        <v>0</v>
+      </c>
+      <c r="BF6" s="5">
+        <v>5</v>
+      </c>
+      <c r="BG6" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:59" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="82" t="s">
+        <v>292</v>
+      </c>
+      <c r="B7" s="75" t="s">
+        <v>284</v>
+      </c>
+      <c r="C7" s="78">
+        <v>1</v>
+      </c>
+      <c r="D7" s="78">
+        <v>1</v>
+      </c>
+      <c r="E7" s="78">
+        <v>1</v>
+      </c>
+      <c r="F7" s="78">
+        <v>1</v>
+      </c>
+      <c r="G7" s="78">
+        <v>0</v>
+      </c>
+      <c r="H7" s="83">
+        <v>0</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="K7" s="95" t="s">
+        <v>288</v>
+      </c>
+      <c r="L7" s="96" t="s">
+        <v>288</v>
+      </c>
+      <c r="M7" s="97" t="s">
+        <v>287</v>
+      </c>
+      <c r="N7" s="97" t="s">
+        <v>287</v>
+      </c>
+      <c r="O7" s="97" t="s">
+        <v>287</v>
+      </c>
+      <c r="P7" s="97" t="s">
+        <v>287</v>
+      </c>
+      <c r="Q7" s="97" t="s">
+        <v>287</v>
+      </c>
+      <c r="R7" s="98" t="s">
+        <v>287</v>
+      </c>
+      <c r="S7" s="103" t="s">
+        <v>289</v>
+      </c>
+      <c r="T7" s="103" t="s">
+        <v>289</v>
+      </c>
+      <c r="U7" s="103" t="s">
+        <v>289</v>
+      </c>
+      <c r="V7" s="103" t="s">
+        <v>289</v>
+      </c>
+      <c r="W7" s="96" t="s">
+        <v>288</v>
+      </c>
+      <c r="X7" s="96" t="s">
+        <v>288</v>
+      </c>
+      <c r="Y7" s="96" t="s">
+        <v>288</v>
+      </c>
+      <c r="Z7" s="96" t="s">
+        <v>288</v>
+      </c>
+      <c r="AA7" s="107" t="s">
+        <v>290</v>
+      </c>
+      <c r="AB7" s="97" t="s">
+        <v>290</v>
+      </c>
+      <c r="AC7" s="97" t="s">
+        <v>290</v>
+      </c>
+      <c r="AD7" s="97" t="s">
+        <v>290</v>
+      </c>
+      <c r="AE7" s="97" t="s">
+        <v>290</v>
+      </c>
+      <c r="AF7" s="97" t="s">
+        <v>290</v>
+      </c>
+      <c r="AG7" s="103" t="s">
+        <v>289</v>
+      </c>
+      <c r="AH7" s="108" t="s">
+        <v>289</v>
+      </c>
+      <c r="AJ7" s="111" t="s">
+        <v>292</v>
+      </c>
+      <c r="AK7" s="103" t="s">
+        <v>292</v>
+      </c>
+      <c r="AL7" s="96" t="s">
+        <v>291</v>
+      </c>
+      <c r="AM7" s="96" t="s">
+        <v>291</v>
+      </c>
+      <c r="AN7" s="96" t="s">
+        <v>291</v>
+      </c>
+      <c r="AO7" s="96" t="s">
+        <v>291</v>
+      </c>
+      <c r="AP7" s="96" t="s">
+        <v>291</v>
+      </c>
+      <c r="AQ7" s="112" t="s">
+        <v>291</v>
+      </c>
+      <c r="AR7" s="97" t="s">
+        <v>293</v>
+      </c>
+      <c r="AS7" s="97" t="s">
+        <v>293</v>
+      </c>
+      <c r="AT7" s="97" t="s">
+        <v>293</v>
+      </c>
+      <c r="AU7" s="97" t="s">
+        <v>293</v>
+      </c>
+      <c r="AV7" s="103" t="s">
+        <v>292</v>
+      </c>
+      <c r="AW7" s="103" t="s">
+        <v>292</v>
+      </c>
+      <c r="AX7" s="103" t="s">
+        <v>292</v>
+      </c>
+      <c r="AY7" s="103" t="s">
+        <v>292</v>
+      </c>
+      <c r="AZ7" s="95" t="s">
+        <v>294</v>
+      </c>
+      <c r="BA7" s="96" t="s">
+        <v>294</v>
+      </c>
+      <c r="BB7" s="96" t="s">
+        <v>294</v>
+      </c>
+      <c r="BC7" s="96" t="s">
+        <v>294</v>
+      </c>
+      <c r="BD7" s="96" t="s">
+        <v>294</v>
+      </c>
+      <c r="BE7" s="96" t="s">
+        <v>294</v>
+      </c>
+      <c r="BF7" s="97" t="s">
+        <v>293</v>
+      </c>
+      <c r="BG7" s="98" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="8" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="A8" s="82" t="s">
+        <v>293</v>
+      </c>
+      <c r="B8" s="75" t="s">
+        <v>285</v>
+      </c>
+      <c r="C8" s="76">
+        <v>1</v>
+      </c>
+      <c r="D8" s="76">
+        <v>1</v>
+      </c>
+      <c r="E8" s="76">
+        <v>0</v>
+      </c>
+      <c r="F8" s="76">
+        <v>1</v>
+      </c>
+      <c r="G8" s="76">
+        <v>1</v>
+      </c>
+      <c r="H8" s="84">
+        <v>1</v>
+      </c>
+      <c r="J8" t="s">
+        <v>297</v>
+      </c>
+      <c r="K8" s="99">
+        <v>1</v>
+      </c>
+      <c r="L8" s="100">
+        <v>0</v>
+      </c>
+      <c r="M8" s="101">
+        <v>0</v>
+      </c>
+      <c r="N8" s="101">
+        <v>0</v>
+      </c>
+      <c r="O8" s="101">
+        <v>1</v>
+      </c>
+      <c r="P8" s="101">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="101">
+        <v>1</v>
+      </c>
+      <c r="R8" s="101">
+        <v>0</v>
+      </c>
+      <c r="S8" s="104">
+        <v>1</v>
+      </c>
+      <c r="T8" s="105">
+        <v>1</v>
+      </c>
+      <c r="U8" s="105">
+        <v>1</v>
+      </c>
+      <c r="V8" s="105">
+        <v>1</v>
+      </c>
+      <c r="W8" s="100">
+        <v>0</v>
+      </c>
+      <c r="X8" s="100">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="100">
+        <v>1</v>
+      </c>
+      <c r="Z8" s="100">
+        <v>1</v>
+      </c>
+      <c r="AA8" s="109">
+        <v>1</v>
+      </c>
+      <c r="AB8" s="101">
+        <v>1</v>
+      </c>
+      <c r="AC8" s="101">
+        <v>1</v>
+      </c>
+      <c r="AD8" s="101">
+        <v>1</v>
+      </c>
+      <c r="AE8" s="101">
+        <v>1</v>
+      </c>
+      <c r="AF8" s="101">
+        <v>1</v>
+      </c>
+      <c r="AG8" s="105">
+        <v>0</v>
+      </c>
+      <c r="AH8" s="110">
+        <v>1</v>
+      </c>
+      <c r="AJ8" s="104">
+        <v>0</v>
+      </c>
+      <c r="AK8" s="105">
+        <v>0</v>
+      </c>
+      <c r="AL8" s="100">
+        <v>1</v>
+      </c>
+      <c r="AM8" s="100">
+        <v>0</v>
+      </c>
+      <c r="AN8" s="100">
+        <v>1</v>
+      </c>
+      <c r="AO8" s="100">
+        <v>0</v>
+      </c>
+      <c r="AP8" s="100">
+        <v>1</v>
+      </c>
+      <c r="AQ8" s="106">
+        <v>0</v>
+      </c>
+      <c r="AR8" s="109">
+        <v>0</v>
+      </c>
+      <c r="AS8" s="101">
+        <v>1</v>
+      </c>
+      <c r="AT8" s="101">
+        <v>1</v>
+      </c>
+      <c r="AU8" s="101">
+        <v>1</v>
+      </c>
+      <c r="AV8" s="105">
+        <v>1</v>
+      </c>
+      <c r="AW8" s="105">
+        <v>1</v>
+      </c>
+      <c r="AX8" s="105">
+        <v>1</v>
+      </c>
+      <c r="AY8" s="110">
+        <v>1</v>
+      </c>
+      <c r="AZ8" s="99">
+        <v>1</v>
+      </c>
+      <c r="BA8" s="100">
+        <v>0</v>
+      </c>
+      <c r="BB8" s="100">
+        <v>1</v>
+      </c>
+      <c r="BC8" s="100">
+        <v>1</v>
+      </c>
+      <c r="BD8" s="100">
+        <v>1</v>
+      </c>
+      <c r="BE8" s="100">
+        <v>1</v>
+      </c>
+      <c r="BF8" s="101">
+        <v>1</v>
+      </c>
+      <c r="BG8" s="102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:59" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="85" t="s">
+        <v>294</v>
+      </c>
+      <c r="B9" s="86" t="s">
+        <v>286</v>
+      </c>
+      <c r="C9" s="87">
+        <v>1</v>
+      </c>
+      <c r="D9" s="87">
+        <v>0</v>
+      </c>
+      <c r="E9" s="87">
+        <v>1</v>
+      </c>
+      <c r="F9" s="87">
+        <v>1</v>
+      </c>
+      <c r="G9" s="87">
+        <v>1</v>
+      </c>
+      <c r="H9" s="88">
+        <v>1</v>
+      </c>
+      <c r="K9" s="115" t="s">
+        <v>298</v>
+      </c>
+      <c r="L9" s="113"/>
+      <c r="M9" s="113"/>
+      <c r="N9" s="113"/>
+      <c r="O9" s="113"/>
+      <c r="P9" s="113"/>
+      <c r="Q9" s="113"/>
+      <c r="R9" s="114"/>
+      <c r="S9" s="115" t="s">
+        <v>299</v>
+      </c>
+      <c r="T9" s="113"/>
+      <c r="U9" s="113"/>
+      <c r="V9" s="113"/>
+      <c r="W9" s="113"/>
+      <c r="X9" s="113"/>
+      <c r="Y9" s="113"/>
+      <c r="Z9" s="114"/>
+      <c r="AA9" s="115" t="s">
+        <v>300</v>
+      </c>
+      <c r="AB9" s="113"/>
+      <c r="AC9" s="113"/>
+      <c r="AD9" s="113"/>
+      <c r="AE9" s="113"/>
+      <c r="AF9" s="113"/>
+      <c r="AG9" s="113"/>
+      <c r="AH9" s="114"/>
+      <c r="AJ9" s="115" t="s">
+        <v>301</v>
+      </c>
+      <c r="AK9" s="113"/>
+      <c r="AL9" s="113"/>
+      <c r="AM9" s="113"/>
+      <c r="AN9" s="113"/>
+      <c r="AO9" s="113"/>
+      <c r="AP9" s="113"/>
+      <c r="AQ9" s="114"/>
+      <c r="AR9" s="115" t="s">
+        <v>302</v>
+      </c>
+      <c r="AS9" s="116"/>
+      <c r="AT9" s="116"/>
+      <c r="AU9" s="116"/>
+      <c r="AV9" s="116"/>
+      <c r="AW9" s="116"/>
+      <c r="AX9" s="116"/>
+      <c r="AY9" s="117"/>
+      <c r="AZ9" s="115" t="s">
+        <v>303</v>
+      </c>
+      <c r="BA9" s="116"/>
+      <c r="BB9" s="116"/>
+      <c r="BC9" s="116"/>
+      <c r="BD9" s="116"/>
+      <c r="BE9" s="116"/>
+      <c r="BF9" s="116"/>
+      <c r="BG9" s="117"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="K9:R9"/>
+    <mergeCell ref="S9:Z9"/>
+    <mergeCell ref="AA9:AH9"/>
+    <mergeCell ref="AJ9:AQ9"/>
+    <mergeCell ref="AR9:AY9"/>
+    <mergeCell ref="AZ9:BG9"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BQ21"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
@@ -26066,12 +27504,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC107"/>
   <sheetViews>
-    <sheetView topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="V98" sqref="V98:AB99"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26082,14 +27520,12 @@
     <col min="6" max="29" width="4.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>245</v>
       </c>
       <c r="B1" s="2"/>
-      <c r="C1" s="22" t="s">
-        <v>30</v>
-      </c>
+      <c r="C1" s="22"/>
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -27748,12 +29184,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC59"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="F59" sqref="F59"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -27764,14 +29200,12 @@
     <col min="6" max="29" width="4.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>237</v>
       </c>
       <c r="B1" s="2"/>
-      <c r="C1" s="22" t="s">
-        <v>30</v>
-      </c>
+      <c r="C1" s="22"/>
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -28678,12 +30112,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AS107"/>
   <sheetViews>
-    <sheetView topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="F107" sqref="F107"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -28694,14 +30128,12 @@
     <col min="6" max="45" width="4.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:45" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>225</v>
       </c>
       <c r="B1" s="2"/>
-      <c r="C1" s="22" t="s">
-        <v>30</v>
-      </c>
+      <c r="C1" s="22"/>
     </row>
     <row r="2" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -30738,12 +32170,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AS33"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -30754,14 +32186,12 @@
     <col min="6" max="45" width="4.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:45" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>219</v>
       </c>
       <c r="B1" s="2"/>
-      <c r="C1" s="22" t="s">
-        <v>30</v>
-      </c>
+      <c r="C1" s="22"/>
     </row>
     <row r="2" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -31330,12 +32760,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AS107"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -31346,14 +32776,12 @@
     <col min="6" max="45" width="4.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:45" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>207</v>
       </c>
       <c r="B1" s="2"/>
-      <c r="C1" s="22" t="s">
-        <v>30</v>
-      </c>
+      <c r="C1" s="22"/>
     </row>
     <row r="2" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -33502,12 +34930,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC59"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="F59" sqref="F59"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E5" sqref="E5:AC7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -33518,14 +34946,12 @@
     <col min="6" max="29" width="4.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>199</v>
       </c>
       <c r="B1" s="2"/>
-      <c r="C1" s="22" t="s">
-        <v>30</v>
-      </c>
+      <c r="C1" s="22"/>
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -34632,12 +36058,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BI107"/>
   <sheetViews>
-    <sheetView topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="F107" sqref="F107"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -34648,14 +36074,12 @@
     <col min="6" max="61" width="4.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:61" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>161</v>
       </c>
       <c r="B1" s="2"/>
-      <c r="C1" s="22" t="s">
-        <v>30</v>
-      </c>
+      <c r="C1" s="22"/>
     </row>
     <row r="2" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -36912,332 +38336,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U22"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="3" max="3" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="37" width="4.28515625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:21" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="22" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="B2" s="3">
-        <v>8</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E4" s="2"/>
-      <c r="F4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="E5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" s="4">
-        <v>7</v>
-      </c>
-      <c r="G5" s="5">
-        <v>6</v>
-      </c>
-      <c r="H5" s="5">
-        <v>5</v>
-      </c>
-      <c r="I5" s="5">
-        <v>4</v>
-      </c>
-      <c r="J5" s="5">
-        <v>3</v>
-      </c>
-      <c r="K5" s="5">
-        <v>2</v>
-      </c>
-      <c r="L5" s="5">
-        <v>1</v>
-      </c>
-      <c r="M5" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6" s="7">
-        <v>0</v>
-      </c>
-      <c r="G6" s="8">
-        <v>0</v>
-      </c>
-      <c r="H6" s="8">
-        <v>0</v>
-      </c>
-      <c r="I6" s="8">
-        <v>0</v>
-      </c>
-      <c r="J6" s="8">
-        <v>0</v>
-      </c>
-      <c r="K6" s="8">
-        <v>0</v>
-      </c>
-      <c r="L6" s="8">
-        <v>0</v>
-      </c>
-      <c r="M6" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="D9" t="s">
-        <v>77</v>
-      </c>
-      <c r="E9" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="D10" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="E10" s="20">
-        <v>0</v>
-      </c>
-      <c r="F10" t="s">
-        <v>155</v>
-      </c>
-      <c r="N10" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="F11" t="s">
-        <v>154</v>
-      </c>
-      <c r="N11" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F12" s="25">
-        <v>15</v>
-      </c>
-      <c r="G12" s="25">
-        <v>14</v>
-      </c>
-      <c r="H12" s="25">
-        <v>13</v>
-      </c>
-      <c r="I12" s="25">
-        <v>12</v>
-      </c>
-      <c r="J12" s="25">
-        <v>11</v>
-      </c>
-      <c r="K12" s="25">
-        <v>10</v>
-      </c>
-      <c r="L12" s="25">
-        <v>9</v>
-      </c>
-      <c r="M12" s="25">
-        <v>8</v>
-      </c>
-      <c r="N12" s="25">
-        <v>7</v>
-      </c>
-      <c r="O12" s="25">
-        <v>6</v>
-      </c>
-      <c r="P12" s="25">
-        <v>5</v>
-      </c>
-      <c r="Q12" s="25">
-        <v>4</v>
-      </c>
-      <c r="R12" s="25">
-        <v>3</v>
-      </c>
-      <c r="S12" s="25">
-        <v>2</v>
-      </c>
-      <c r="T12" s="25">
-        <v>1</v>
-      </c>
-      <c r="U12" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="N13" s="4">
-        <v>7</v>
-      </c>
-      <c r="O13" s="5">
-        <v>6</v>
-      </c>
-      <c r="P13" s="5">
-        <v>5</v>
-      </c>
-      <c r="Q13" s="5">
-        <v>4</v>
-      </c>
-      <c r="R13" s="5">
-        <v>3</v>
-      </c>
-      <c r="S13" s="5">
-        <v>2</v>
-      </c>
-      <c r="T13" s="5">
-        <v>1</v>
-      </c>
-      <c r="U13" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="N14" s="7">
-        <v>0</v>
-      </c>
-      <c r="O14" s="8">
-        <v>0</v>
-      </c>
-      <c r="P14" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="8">
-        <v>0</v>
-      </c>
-      <c r="R14" s="8">
-        <v>0</v>
-      </c>
-      <c r="S14" s="8">
-        <v>0</v>
-      </c>
-      <c r="T14" s="8">
-        <v>0</v>
-      </c>
-      <c r="U14" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="F15" s="36"/>
-      <c r="G15" s="37"/>
-      <c r="H15" s="37"/>
-      <c r="I15" s="37"/>
-      <c r="J15" s="37"/>
-      <c r="K15" s="37"/>
-      <c r="L15" s="37"/>
-      <c r="M15" s="26"/>
-    </row>
-    <row r="16" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F16" s="38"/>
-      <c r="G16" s="39"/>
-      <c r="H16" s="39"/>
-      <c r="I16" s="39"/>
-      <c r="J16" s="39"/>
-      <c r="K16" s="39"/>
-      <c r="L16" s="39"/>
-      <c r="M16" s="27"/>
-    </row>
-    <row r="17" spans="4:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="N17" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="18" spans="4:21" x14ac:dyDescent="0.25">
-      <c r="L18" t="s">
-        <v>159</v>
-      </c>
-      <c r="N18" s="49">
-        <v>7</v>
-      </c>
-      <c r="O18" s="47">
-        <v>6</v>
-      </c>
-      <c r="P18" s="47">
-        <v>5</v>
-      </c>
-      <c r="Q18" s="47">
-        <v>4</v>
-      </c>
-      <c r="R18" s="47">
-        <v>3</v>
-      </c>
-      <c r="S18" s="47">
-        <v>2</v>
-      </c>
-      <c r="T18" s="47">
-        <v>1</v>
-      </c>
-      <c r="U18" s="48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="4:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="N19" s="54">
-        <v>0</v>
-      </c>
-      <c r="O19" s="53">
-        <v>0</v>
-      </c>
-      <c r="P19" s="53">
-        <v>0</v>
-      </c>
-      <c r="Q19" s="53">
-        <v>0</v>
-      </c>
-      <c r="R19" s="53">
-        <v>0</v>
-      </c>
-      <c r="S19" s="53">
-        <v>0</v>
-      </c>
-      <c r="T19" s="53">
-        <v>0</v>
-      </c>
-      <c r="U19" s="55">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="4:21" x14ac:dyDescent="0.25">
-      <c r="D22" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="E22" s="20">
-        <v>1</v>
-      </c>
-      <c r="F22" t="s">
-        <v>66</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>